--- a/db/calculations_data.xlsx
+++ b/db/calculations_data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="16360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="32120" yWindow="-360" windowWidth="32000" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Circles" sheetId="1" r:id="rId1"/>
     <sheet name="Images" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="264">
   <si>
     <t>Standard Deviation</t>
   </si>
   <si>
-    <t>Median</t>
-  </si>
-  <si>
     <t>Size Weight</t>
   </si>
   <si>
-    <t>Distance Weight</t>
-  </si>
-  <si>
     <t>Overlap Weight</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Adjectives</t>
   </si>
   <si>
-    <t>Self-disciplined/Persistent</t>
-  </si>
-  <si>
     <t>Anxious/Dramatic</t>
   </si>
   <si>
@@ -94,24 +85,6 @@
     <t>Detail-Oriented/Thorough</t>
   </si>
   <si>
-    <t>Stimulating/Flirtatious</t>
-  </si>
-  <si>
-    <t>Sensational/Thrill-Seeker</t>
-  </si>
-  <si>
-    <t>Searcher/New Ideas</t>
-  </si>
-  <si>
-    <t>Thoughtful/Intentional</t>
-  </si>
-  <si>
-    <t>Spontaneous/Reactive</t>
-  </si>
-  <si>
-    <t>Fine Arts/Classical Music</t>
-  </si>
-  <si>
     <t>cf:abstraction</t>
   </si>
   <si>
@@ -628,48 +601,231 @@
     <t>cf:young_adult</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Maps To in Big5</t>
-  </si>
-  <si>
-    <t>Maps To in Holland6</t>
-  </si>
-  <si>
-    <t>Maps To in Emo6</t>
-  </si>
-  <si>
-    <t>extraversion</t>
-  </si>
-  <si>
     <t>Big5</t>
   </si>
   <si>
     <t>Holland6</t>
   </si>
   <si>
-    <t>Emo6</t>
+    <t>Openness</t>
+  </si>
+  <si>
+    <t>Neuroticism</t>
+  </si>
+  <si>
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>Conscientousness</t>
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Anger/Annoyance (1)</t>
+  </si>
+  <si>
+    <t>Disgust/Boredom (2)</t>
+  </si>
+  <si>
+    <t>Fear/Apprehension (5)</t>
+  </si>
+  <si>
+    <t>Happiness/Satisfaction (7)</t>
+  </si>
+  <si>
+    <t>Sadness/Blue (3)</t>
+  </si>
+  <si>
+    <t>Surprise/Tickled (4)</t>
+  </si>
+  <si>
+    <t>Trust/Acceptance (6)</t>
+  </si>
+  <si>
+    <t>Anticipation/Interest (8)</t>
+  </si>
+  <si>
+    <t>Size Standard Deviation</t>
+  </si>
+  <si>
+    <t>Size Mean</t>
+  </si>
+  <si>
+    <t>Distance Mean</t>
+  </si>
+  <si>
+    <t>Overlap Standard Deviation</t>
+  </si>
+  <si>
+    <t>Overlap Mean</t>
+  </si>
+  <si>
+    <t>Emo8</t>
+  </si>
+  <si>
+    <t>Realistic</t>
+  </si>
+  <si>
+    <t>Artistic</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Enterprising</t>
+  </si>
+  <si>
+    <t>Investigative</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>Pictures Used</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>eye_cover</t>
+  </si>
+  <si>
+    <t>boy_sitting</t>
+  </si>
+  <si>
+    <t>finger_point</t>
+  </si>
+  <si>
+    <t>messy_desk</t>
+  </si>
+  <si>
+    <t>grey_image</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>tunnel</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>transgender</t>
+  </si>
+  <si>
+    <t>girl_at_bar</t>
+  </si>
+  <si>
+    <t>alaska</t>
+  </si>
+  <si>
+    <t>vampire_woman</t>
+  </si>
+  <si>
+    <t>race_car</t>
+  </si>
+  <si>
+    <t>Replace with two whites in conflict</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>female_dust_bunny</t>
+  </si>
+  <si>
+    <t>park_runner</t>
+  </si>
+  <si>
+    <t>purple_shelf</t>
+  </si>
+  <si>
+    <t>gray_curves</t>
+  </si>
+  <si>
+    <t>Frame #</t>
+  </si>
+  <si>
+    <t>Weight Extraversion</t>
+  </si>
+  <si>
+    <t>Weight Conscientiousness</t>
+  </si>
+  <si>
+    <t>Weight Neuroticism</t>
+  </si>
+  <si>
+    <t>Weight Openness</t>
+  </si>
+  <si>
+    <t>Weight Agreeableness</t>
+  </si>
+  <si>
+    <t>Distance Ranked Weight</t>
+  </si>
+  <si>
+    <t>Distance Ranked Standard Deviation</t>
+  </si>
+  <si>
+    <t>Weight scores and then sum all for each subject. Sum of weighted scores is one estimate of a dimension. Standardize estimated score .</t>
+  </si>
+  <si>
+    <t>Self-Disciplined/Persistent</t>
+  </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>Distance:</t>
+  </si>
+  <si>
+    <t>Overlap:</t>
+  </si>
+  <si>
+    <t>Zscore (Sociable)</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Zscore(Self_Reflective)</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>abstraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -697,6 +853,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -728,47 +895,169 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Circles" xfId="14"/>
+    <cellStyle name="Normal_Images" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1097,242 +1386,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.3</v>
       </c>
       <c r="D2" s="2">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="2">
         <v>-0.45</v>
       </c>
       <c r="F2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
+      <c r="B7" s="3">
+        <v>-0.9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.7</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.9</v>
+        <v>3.35</v>
       </c>
       <c r="E7" s="3">
         <v>0.45</v>
       </c>
       <c r="F7" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H7" s="3">
         <v>-0.3</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-0.35</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>35.4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-0.45</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-0.35</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="J10" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>32.9</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.76</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="J14" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.34</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J16" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.53</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="J17" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1">
+      <c r="A24" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="L24" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>209</v>
+      <c r="L25" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="D28" s="9">
+        <v>2.1741573033707859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29" s="9">
+        <v>3.3502824858757063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="D30" s="9">
+        <v>2.5842696629213484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="D31" s="9">
+        <v>3.0842696629213484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <f>(B34-D2)/C2</f>
+        <v>-1.1538461538461537</v>
+      </c>
+      <c r="D34">
+        <f>C34*B2</f>
+        <v>-1.0384615384615383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f>(B35-G2)/F2</f>
+        <v>-0.16666666666666682</v>
+      </c>
+      <c r="D35">
+        <f>C35*E2</f>
+        <v>7.5000000000000067E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>0.53</v>
+      </c>
+      <c r="C36">
+        <f>(B36-J2/100)/(I2/100)</f>
+        <v>1.2754491017964074</v>
+      </c>
+      <c r="D36">
+        <f>C36*H2</f>
+        <v>0.38263473053892222</v>
+      </c>
+      <c r="E36">
+        <f>D34+D35+D36</f>
+        <v>-0.58082680792261598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <f>(B38-D7)/C7</f>
+        <v>-0.20588235294117652</v>
+      </c>
+      <c r="D38">
+        <f>C38*B7</f>
+        <v>0.18529411764705886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>(B39-G7)/F7</f>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="D39">
+        <f>C39*E7</f>
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f>(B40-J7/100)/(I7/100)</f>
+        <v>3.9314285714285715</v>
+      </c>
+      <c r="D40">
+        <f>C40*H7</f>
+        <v>-1.1794285714285715</v>
+      </c>
+      <c r="E40">
+        <f>D38+D39+D40</f>
+        <v>-1.5941344537815128</v>
+      </c>
+      <c r="F40">
+        <f>E36+E40</f>
+        <v>-2.1749612617041287</v>
+      </c>
+      <c r="G40">
+        <f>F40/2</f>
+        <v>-1.0874806308520644</v>
       </c>
     </row>
   </sheetData>
@@ -1348,567 +2271,5118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ7"/>
+  <dimension ref="A1:FT170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173">
-      <c r="B1" t="s">
+    <row r="1" spans="1:176">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AF1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AJ1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AK1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AL1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AM1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AN1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AO1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AV1" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AW1" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AX1" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AY1" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AZ1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="BA1" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="BB1" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="BC1" t="s">
         <v>73</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="BD1" t="s">
         <v>74</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BE1" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BF1" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BG1" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BH1" t="s">
         <v>78</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BI1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BJ1" t="s">
         <v>80</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BK1" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BL1" t="s">
         <v>82</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BM1" t="s">
         <v>83</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BN1" t="s">
         <v>84</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BO1" t="s">
         <v>85</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BP1" t="s">
         <v>86</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BQ1" t="s">
         <v>87</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BR1" t="s">
         <v>88</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BS1" t="s">
         <v>89</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BT1" t="s">
         <v>90</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BU1" t="s">
         <v>91</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BV1" t="s">
         <v>92</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BW1" t="s">
         <v>93</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BX1" t="s">
         <v>94</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BY1" t="s">
         <v>95</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BZ1" t="s">
         <v>96</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CA1" t="s">
         <v>97</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CB1" t="s">
         <v>98</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CC1" t="s">
         <v>99</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CD1" t="s">
         <v>100</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CE1" t="s">
         <v>101</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CF1" t="s">
         <v>102</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CG1" t="s">
         <v>103</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CH1" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CI1" t="s">
         <v>105</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CJ1" t="s">
         <v>106</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CK1" t="s">
         <v>107</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CL1" t="s">
         <v>108</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CM1" t="s">
         <v>109</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CN1" t="s">
         <v>110</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CO1" t="s">
         <v>111</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CP1" t="s">
         <v>112</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CQ1" t="s">
         <v>113</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CR1" t="s">
         <v>114</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CS1" t="s">
         <v>115</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CT1" t="s">
         <v>116</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CU1" t="s">
         <v>117</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CV1" t="s">
         <v>118</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CW1" t="s">
         <v>119</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CX1" t="s">
         <v>120</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CY1" t="s">
         <v>121</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CZ1" t="s">
         <v>122</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="DA1" t="s">
         <v>123</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="DB1" t="s">
         <v>124</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DC1" t="s">
         <v>125</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DD1" t="s">
         <v>126</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DE1" t="s">
         <v>127</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DF1" t="s">
         <v>128</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DG1" t="s">
         <v>129</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DH1" t="s">
         <v>130</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DI1" t="s">
         <v>131</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DJ1" t="s">
         <v>132</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DK1" t="s">
         <v>133</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DL1" t="s">
         <v>134</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DM1" t="s">
         <v>135</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DN1" t="s">
         <v>136</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DO1" t="s">
         <v>137</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DP1" t="s">
         <v>138</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DQ1" t="s">
         <v>139</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DR1" t="s">
         <v>140</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DS1" t="s">
         <v>141</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DT1" t="s">
         <v>142</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DU1" t="s">
         <v>143</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DV1" t="s">
         <v>144</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DW1" t="s">
         <v>145</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DX1" t="s">
         <v>146</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DY1" t="s">
         <v>147</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DZ1" t="s">
         <v>148</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="EA1" t="s">
         <v>149</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="EB1" t="s">
         <v>150</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EC1" t="s">
         <v>151</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="ED1" t="s">
         <v>152</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="EE1" t="s">
         <v>153</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="EF1" t="s">
         <v>154</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EG1" t="s">
         <v>155</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EH1" t="s">
         <v>156</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EI1" t="s">
         <v>157</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EJ1" t="s">
         <v>158</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EK1" t="s">
         <v>159</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EL1" t="s">
         <v>160</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EM1" t="s">
         <v>161</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EN1" t="s">
         <v>162</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EO1" t="s">
         <v>163</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EP1" t="s">
         <v>164</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EQ1" t="s">
         <v>165</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="ER1" t="s">
         <v>166</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="ES1" t="s">
         <v>167</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="ET1" t="s">
         <v>168</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EU1" t="s">
         <v>169</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EV1" t="s">
         <v>170</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EW1" t="s">
         <v>171</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EX1" t="s">
         <v>172</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EY1" t="s">
         <v>173</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EZ1" t="s">
         <v>174</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FA1" t="s">
         <v>175</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="FB1" t="s">
         <v>176</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="FC1" t="s">
         <v>177</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="FD1" t="s">
         <v>178</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="FE1" t="s">
         <v>179</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="FF1" t="s">
         <v>180</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="FG1" t="s">
         <v>181</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="FH1" t="s">
         <v>182</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FI1" t="s">
         <v>183</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FJ1" t="s">
         <v>184</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FK1" t="s">
         <v>185</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FL1" t="s">
         <v>186</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FM1" t="s">
         <v>187</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FN1" t="s">
         <v>188</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FO1" t="s">
         <v>189</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FP1" t="s">
         <v>190</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FQ1" t="s">
         <v>191</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FR1" t="s">
         <v>192</v>
       </c>
-      <c r="FI1" t="s">
-        <v>193</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>194</v>
-      </c>
-      <c r="FK1" t="s">
+    </row>
+    <row r="2" spans="1:176">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>-0.75</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>-0.5</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>-0.5</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0.5</v>
+      </c>
+      <c r="BU2">
+        <v>-0.5</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>-0.5</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>-0.25</v>
+      </c>
+      <c r="CO2">
+        <v>0.25</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2">
+        <v>0</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
+        <v>0</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FB2">
+        <v>0</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>1</v>
+      </c>
+      <c r="FE2">
+        <v>0</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:176">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0.75</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0.75</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>-0.75</v>
+      </c>
+      <c r="AP3">
+        <v>0.75</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>-0.5</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0.75</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0.75</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.5</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0.75</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>1</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0.5</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>1</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>1</v>
+      </c>
+      <c r="DQ3">
+        <v>0.75</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>-0.5</v>
+      </c>
+      <c r="DU3">
+        <v>0.75</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>1</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0.75</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0.5</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0.75</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>0</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>1</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>-0.75</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>1</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>-0.75</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0.5</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>1</v>
+      </c>
+      <c r="FO3">
+        <v>1</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:176">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-0.25</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-0.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>-0.75</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>-0.5</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>-1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.5</v>
+      </c>
+      <c r="AK4">
+        <v>-0.5</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>-0.75</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.75</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>-0.5</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>-0.5</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>-1</v>
+      </c>
+      <c r="BL4">
+        <v>-1</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>-1</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>-0.5</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>-1</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>-1</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>-1</v>
+      </c>
+      <c r="CI4">
+        <v>-1</v>
+      </c>
+      <c r="CJ4">
+        <v>-1</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>-1</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>-0.5</v>
+      </c>
+      <c r="CX4">
+        <v>-0.75</v>
+      </c>
+      <c r="CY4">
+        <v>-1</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>-1</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>-1</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>-1</v>
+      </c>
+      <c r="DJ4">
+        <v>-1</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>-0.5</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>-1</v>
+      </c>
+      <c r="DQ4">
+        <v>-0.75</v>
+      </c>
+      <c r="DR4">
+        <v>-0.1</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>-0.75</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>-1</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>-1</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>-0.5</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>-1</v>
+      </c>
+      <c r="EP4">
+        <v>-0.75</v>
+      </c>
+      <c r="EQ4">
+        <v>0</v>
+      </c>
+      <c r="ER4">
+        <v>-0.75</v>
+      </c>
+      <c r="ES4">
+        <v>0</v>
+      </c>
+      <c r="ET4">
+        <v>0</v>
+      </c>
+      <c r="EU4">
+        <v>0</v>
+      </c>
+      <c r="EV4">
+        <v>-1</v>
+      </c>
+      <c r="EW4">
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <v>0</v>
+      </c>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="EZ4">
+        <v>0</v>
+      </c>
+      <c r="FA4">
+        <v>0</v>
+      </c>
+      <c r="FB4">
+        <v>0</v>
+      </c>
+      <c r="FC4">
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>0</v>
+      </c>
+      <c r="FF4">
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <v>-1</v>
+      </c>
+      <c r="FH4">
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <v>0</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>-1</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>-0.75</v>
+      </c>
+      <c r="FN4">
+        <v>-1</v>
+      </c>
+      <c r="FO4">
+        <v>-1</v>
+      </c>
+      <c r="FP4">
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <v>-1</v>
+      </c>
+      <c r="FR4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:176" ht="17.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.75</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0.75</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>1</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>0.75</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DU5">
+        <v>0.5</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>0</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DY5">
+        <v>0</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>1</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5">
+        <v>0.75</v>
+      </c>
+      <c r="EP5">
+        <v>0</v>
+      </c>
+      <c r="EQ5">
+        <v>0</v>
+      </c>
+      <c r="ER5">
+        <v>0.75</v>
+      </c>
+      <c r="ES5">
+        <v>0</v>
+      </c>
+      <c r="ET5">
+        <v>0</v>
+      </c>
+      <c r="EU5">
+        <v>0</v>
+      </c>
+      <c r="EV5">
+        <v>0</v>
+      </c>
+      <c r="EW5">
+        <v>0</v>
+      </c>
+      <c r="EX5">
+        <v>0</v>
+      </c>
+      <c r="EY5">
+        <v>0</v>
+      </c>
+      <c r="EZ5">
+        <v>0</v>
+      </c>
+      <c r="FA5">
+        <v>0</v>
+      </c>
+      <c r="FB5">
+        <v>0</v>
+      </c>
+      <c r="FC5">
+        <v>0</v>
+      </c>
+      <c r="FD5">
+        <v>0</v>
+      </c>
+      <c r="FE5">
+        <v>0</v>
+      </c>
+      <c r="FF5">
+        <v>0</v>
+      </c>
+      <c r="FG5">
+        <v>0</v>
+      </c>
+      <c r="FH5">
+        <v>0</v>
+      </c>
+      <c r="FI5">
+        <v>0</v>
+      </c>
+      <c r="FJ5">
+        <v>0</v>
+      </c>
+      <c r="FK5">
+        <v>0</v>
+      </c>
+      <c r="FL5">
+        <v>0</v>
+      </c>
+      <c r="FM5">
+        <v>0.75</v>
+      </c>
+      <c r="FN5">
+        <v>0</v>
+      </c>
+      <c r="FO5">
+        <v>1</v>
+      </c>
+      <c r="FP5">
+        <v>0</v>
+      </c>
+      <c r="FQ5">
+        <v>0</v>
+      </c>
+      <c r="FR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:176">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>-0.5</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0.5</v>
+      </c>
+      <c r="AE6">
+        <v>0.5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0.5</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>-0.5</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0.5</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0.5</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>-0.5</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0.5</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>-0.5</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0.5</v>
+      </c>
+      <c r="CI6">
+        <v>1</v>
+      </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0.5</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0.75</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0.5</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>1</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0.5</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>1</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>1</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>1</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>1</v>
+      </c>
+      <c r="DS6">
+        <v>0.75</v>
+      </c>
+      <c r="DT6">
+        <v>-0.75</v>
+      </c>
+      <c r="DU6">
+        <v>1</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>0</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>1</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0.75</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6">
+        <v>0.75</v>
+      </c>
+      <c r="EP6">
+        <v>0</v>
+      </c>
+      <c r="EQ6">
+        <v>0</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
+      <c r="ES6">
+        <v>0</v>
+      </c>
+      <c r="ET6">
+        <v>0</v>
+      </c>
+      <c r="EU6">
+        <v>0</v>
+      </c>
+      <c r="EV6">
+        <v>0.75</v>
+      </c>
+      <c r="EW6">
+        <v>0</v>
+      </c>
+      <c r="EX6">
+        <v>0</v>
+      </c>
+      <c r="EY6">
+        <v>0</v>
+      </c>
+      <c r="EZ6">
+        <v>0</v>
+      </c>
+      <c r="FA6">
+        <v>0</v>
+      </c>
+      <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
+        <v>0</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FE6">
+        <v>0</v>
+      </c>
+      <c r="FF6">
+        <v>0</v>
+      </c>
+      <c r="FG6">
+        <v>0.75</v>
+      </c>
+      <c r="FH6">
+        <v>0</v>
+      </c>
+      <c r="FI6">
+        <v>0</v>
+      </c>
+      <c r="FJ6">
+        <v>-0.5</v>
+      </c>
+      <c r="FK6">
+        <v>0</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>1</v>
+      </c>
+      <c r="FP6">
+        <v>0</v>
+      </c>
+      <c r="FQ6">
+        <v>0.75</v>
+      </c>
+      <c r="FR6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:176">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.9970294986749866</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15.112033195020743</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.1932469879202493</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.12883132528016614</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2.0723931282477026</v>
+      </c>
+      <c r="M8" s="8">
+        <v>4.2540965530545893</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>2.4491156277786499</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1.4997118210958784</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.4491156277786477</v>
+      </c>
+      <c r="R8" s="8">
+        <v>2.4491156277786477</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1.9062030213243877</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1.6113145926414241</v>
+      </c>
+      <c r="V8" s="8">
+        <v>2.0723931282477026</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0.25766265056033227</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1.8116153585871588</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>1.365576598638705</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>3.271365562233973</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>2.8709808638045553</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0.32207831320041552</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0.54961321745085467</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>2.1370165084527826</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>3.3766907040251803</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>0.67174758152002934</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>1.365576598638705</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>3.4497729794811867</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>7.6324881604017039</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0.32207831320041552</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>2.0670469912841938</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>2.241689740069543</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>3.6317953906210216</v>
+      </c>
+      <c r="BC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="8">
+        <v>1.4997118210958784</v>
+      </c>
+      <c r="BH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="8">
+        <v>1.5728175948666114</v>
+      </c>
+      <c r="BL8" s="8">
+        <v>3.1067120482975801</v>
+      </c>
+      <c r="BM8" s="8">
+        <v>1.365576598638705</v>
+      </c>
+      <c r="BN8" s="8">
+        <v>3.2918599046873975</v>
+      </c>
+      <c r="BO8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="8">
+        <v>1.6355110105285644</v>
+      </c>
+      <c r="BQ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="8">
+        <v>1.4825401550053607</v>
+      </c>
+      <c r="BU8" s="8">
+        <v>1.4815602407219111</v>
+      </c>
+      <c r="BV8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="8">
+        <v>2.0723931282477026</v>
+      </c>
+      <c r="BZ8" s="8">
+        <v>2.0723931282477026</v>
+      </c>
+      <c r="CA8" s="8">
+        <v>1.365576598638705</v>
+      </c>
+      <c r="CB8" s="8">
+        <v>2.0723931282477026</v>
+      </c>
+      <c r="CC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="8">
+        <v>5.3834115885700404</v>
+      </c>
+      <c r="CG8" s="8">
+        <v>3.256608346932619</v>
+      </c>
+      <c r="CH8" s="8">
+        <v>2.702471846332779</v>
+      </c>
+      <c r="CI8" s="8">
+        <v>3.4331392873765494</v>
+      </c>
+      <c r="CJ8" s="8">
+        <v>2.2840931689460486</v>
+      </c>
+      <c r="CK8" s="8">
+        <v>2.0817988816595889</v>
+      </c>
+      <c r="CL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="8">
+        <v>2.6400862343936002</v>
+      </c>
+      <c r="CO8" s="8">
+        <v>0.37491354466743904</v>
+      </c>
+      <c r="CP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="8">
+        <v>2.7276312686070141</v>
+      </c>
+      <c r="CS8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="8">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="8">
+        <v>3.0324660958379468</v>
+      </c>
+      <c r="CW8" s="8">
+        <v>3.6727850373856219</v>
+      </c>
+      <c r="CX8" s="8">
+        <v>6.2835104406545428</v>
+      </c>
+      <c r="CY8" s="8">
+        <v>1.5728175948666114</v>
+      </c>
+      <c r="CZ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="8">
+        <v>4.674753416178727</v>
+      </c>
+      <c r="DE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="8">
+        <v>3.0179499879908271</v>
+      </c>
+      <c r="DH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="8">
+        <v>3.918172365886508</v>
+      </c>
+      <c r="DJ8" s="8">
+        <v>3.3288160954775456</v>
+      </c>
+      <c r="DK8" s="8">
+        <v>1.3803351167662681</v>
+      </c>
+      <c r="DL8" s="8">
+        <v>2.6400862343936002</v>
+      </c>
+      <c r="DM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="8">
+        <v>0.25766265056033227</v>
+      </c>
+      <c r="DO8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="8">
+        <v>2.3704978438426214</v>
+      </c>
+      <c r="DQ8" s="8">
+        <v>3.5779503779860566</v>
+      </c>
+      <c r="DR8" s="8">
+        <v>1.6039047270470848</v>
+      </c>
+      <c r="DS8" s="8">
+        <v>2.4491156277786477</v>
+      </c>
+      <c r="DT8" s="8">
+        <v>1.365576598638705</v>
+      </c>
+      <c r="DU8" s="8">
+        <v>4.1338681445821583</v>
+      </c>
+      <c r="DV8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="8">
+        <v>3.4609758855301633</v>
+      </c>
+      <c r="DX8" s="8">
+        <v>4.1166724063550175</v>
+      </c>
+      <c r="DY8" s="8">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="8">
+        <v>2.3981320531610306</v>
+      </c>
+      <c r="EE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="8">
+        <v>1.2759749343913542</v>
+      </c>
+      <c r="EI8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="8">
+        <v>4.754218480570267</v>
+      </c>
+      <c r="EL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="8">
+        <v>2.4452440642779574</v>
+      </c>
+      <c r="EP8" s="8">
+        <v>1.6299305452368171</v>
+      </c>
+      <c r="EQ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="8">
+        <v>2.1370165084527826</v>
+      </c>
+      <c r="ES8" s="8">
+        <v>2.1794732699530486</v>
+      </c>
+      <c r="ET8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="8">
+        <v>2.3439616663296108</v>
+      </c>
+      <c r="EW8" s="8">
+        <v>2.0723931282477026</v>
+      </c>
+      <c r="EX8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="8">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="8">
+        <v>2.1757655526210398</v>
+      </c>
+      <c r="FB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="8">
+        <v>0.45453759580783448</v>
+      </c>
+      <c r="FE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="8">
+        <v>2.6848210698368913</v>
+      </c>
+      <c r="FH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="8">
+        <v>1.3806857798511809</v>
+      </c>
+      <c r="FJ8" s="8">
+        <v>1.365576598638705</v>
+      </c>
+      <c r="FK8" s="8">
+        <v>1.655777011065634</v>
+      </c>
+      <c r="FL8" s="8">
+        <v>0.12883132528016614</v>
+      </c>
+      <c r="FM8" s="8">
+        <v>2.1370165084527826</v>
+      </c>
+      <c r="FN8" s="8">
+        <v>1.5903082158185995</v>
+      </c>
+      <c r="FO8" s="8">
+        <v>2.4104644502329404</v>
+      </c>
+      <c r="FP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="8">
+        <v>4.9725630338754323</v>
+      </c>
+      <c r="FR8" s="8">
+        <v>3.6317953906210216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:176">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.053941908713693</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4.9286471705962915</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.2448132780082994E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>8.2987551867220021E-3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2.3236514522821579</v>
+      </c>
+      <c r="M9" s="6">
+        <v>12.834024896265561</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>6.7468879668049784</v>
+      </c>
+      <c r="P9" s="6">
+        <v>3.4564315352697084</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>6.7468879668049784</v>
+      </c>
+      <c r="R9" s="6">
+        <v>6.7468879668049784</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2.937759336099584</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>2.5684647302904562</v>
+      </c>
+      <c r="V9" s="6">
+        <v>2.3236514522821579</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>1.6597510373444004E-2</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>3.2904564315352691</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>1.3941908713692945</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>9.1991701244813289</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>7.7883817427385873</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>2.0746887966804968E-2</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>4.5643153526971E-2</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>5.2406639004149387</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>9.2987551867219906</v>
+      </c>
+      <c r="AL9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="6">
+        <v>5.3941908713692928E-2</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="6">
+        <v>1.3941908713692945</v>
+      </c>
+      <c r="AP9" s="6">
+        <v>8.4896265560165993</v>
+      </c>
+      <c r="AQ9" s="6">
+        <v>31.912863070539416</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="6">
+        <v>2.0746887966804968E-2</v>
+      </c>
+      <c r="AT9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="6">
+        <v>2.3319502074688794</v>
+      </c>
+      <c r="AV9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="6">
+        <v>5.2406639004149378</v>
+      </c>
+      <c r="AY9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="6">
+        <v>8.958506224066392</v>
+      </c>
+      <c r="BC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="6">
+        <v>3.4564315352697084</v>
+      </c>
+      <c r="BH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="6">
+        <v>2.5477178423236513</v>
+      </c>
+      <c r="BL9" s="6">
+        <v>6.3195020746887982</v>
+      </c>
+      <c r="BM9" s="6">
+        <v>1.3941908713692945</v>
+      </c>
+      <c r="BN9" s="6">
+        <v>9.3485477178423224</v>
+      </c>
+      <c r="BO9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="6">
+        <v>3.1120331950207456</v>
+      </c>
+      <c r="BQ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="6">
+        <v>3.0788381742738595</v>
+      </c>
+      <c r="BU9" s="6">
+        <v>3.0954356846473026</v>
+      </c>
+      <c r="BV9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="6">
+        <v>2.3236514522821579</v>
+      </c>
+      <c r="BZ9" s="6">
+        <v>2.3236514522821579</v>
+      </c>
+      <c r="CA9" s="6">
+        <v>1.3941908713692945</v>
+      </c>
+      <c r="CB9" s="6">
+        <v>2.3236514522821579</v>
+      </c>
+      <c r="CC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="6">
+        <v>18.269709543568464</v>
+      </c>
+      <c r="CG9" s="6">
+        <v>6.8464730290456428</v>
+      </c>
+      <c r="CH9" s="6">
+        <v>4.9045643153526983</v>
+      </c>
+      <c r="CI9" s="6">
+        <v>8.1161825726141092</v>
+      </c>
+      <c r="CJ9" s="6">
+        <v>5.6597510373443978</v>
+      </c>
+      <c r="CK9" s="6">
+        <v>2.3692946058091291</v>
+      </c>
+      <c r="CL9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="6">
+        <v>3.7178423236514533</v>
+      </c>
+      <c r="CO9" s="6">
+        <v>3.319502074688796E-2</v>
+      </c>
+      <c r="CP9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="6">
+        <v>6.6390041493775938</v>
+      </c>
+      <c r="CS9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="6">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="6">
+        <v>6.2655601659751028</v>
+      </c>
+      <c r="CW9" s="6">
+        <v>9.3319502074688785</v>
+      </c>
+      <c r="CX9" s="6">
+        <v>24.92946058091286</v>
+      </c>
+      <c r="CY9" s="6">
+        <v>2.5477178423236513</v>
+      </c>
+      <c r="CZ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="6">
+        <v>17.029045643153513</v>
+      </c>
+      <c r="DE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="6">
+        <v>6.2738589211618248</v>
+      </c>
+      <c r="DH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="6">
+        <v>12.954356846473033</v>
+      </c>
+      <c r="DJ9" s="6">
+        <v>8.6680497925311162</v>
+      </c>
+      <c r="DK9" s="6">
+        <v>2.6929460580912856</v>
+      </c>
+      <c r="DL9" s="6">
+        <v>3.7178423236514533</v>
+      </c>
+      <c r="DM9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="6">
+        <v>1.6597510373444004E-2</v>
+      </c>
+      <c r="DO9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="6">
+        <v>6.8506224066390038</v>
+      </c>
+      <c r="DQ9" s="6">
+        <v>10.655601659751037</v>
+      </c>
+      <c r="DR9" s="6">
+        <v>2.9502074688796687</v>
+      </c>
+      <c r="DS9" s="6">
+        <v>6.7468879668049784</v>
+      </c>
+      <c r="DT9" s="6">
+        <v>1.3941908713692945</v>
+      </c>
+      <c r="DU9" s="6">
+        <v>13.178423236514522</v>
+      </c>
+      <c r="DV9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="6">
+        <v>7.0954356846473017</v>
+      </c>
+      <c r="DX9" s="6">
+        <v>12.692946058091287</v>
+      </c>
+      <c r="DY9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="6">
+        <v>5.4979253112033213</v>
+      </c>
+      <c r="EE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="6">
+        <v>0.11618257261410792</v>
+      </c>
+      <c r="EI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="6">
+        <v>14.149377593360995</v>
+      </c>
+      <c r="EL9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="6">
+        <v>6.8713692946058087</v>
+      </c>
+      <c r="EP9" s="6">
+        <v>3.4481327800829873</v>
+      </c>
+      <c r="EQ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="6">
+        <v>5.2406639004149387</v>
+      </c>
+      <c r="ES9" s="6">
+        <v>6.170124481327802</v>
+      </c>
+      <c r="ET9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="6">
+        <v>6.8132780082987559</v>
+      </c>
+      <c r="EW9" s="6">
+        <v>2.3236514522821579</v>
+      </c>
+      <c r="EX9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="6">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="6">
+        <v>2.4066390041493779</v>
+      </c>
+      <c r="FB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="6">
+        <v>4.1493775933609943E-2</v>
+      </c>
+      <c r="FE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="6">
+        <v>6.0082987551867211</v>
+      </c>
+      <c r="FH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="6">
+        <v>0.12033195020746891</v>
+      </c>
+      <c r="FJ9" s="6">
+        <v>1.3941908713692945</v>
+      </c>
+      <c r="FK9" s="6">
+        <v>2.991701244813278</v>
+      </c>
+      <c r="FL9" s="6">
+        <v>8.2987551867220021E-3</v>
+      </c>
+      <c r="FM9" s="6">
+        <v>5.2406639004149387</v>
+      </c>
+      <c r="FN9" s="6">
+        <v>3.4273858921161833</v>
+      </c>
+      <c r="FO9" s="6">
+        <v>6.8630705394190867</v>
+      </c>
+      <c r="FP9" s="6">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="6">
+        <v>15.589211618257263</v>
+      </c>
+      <c r="FR9" s="6">
+        <v>8.958506224066392</v>
+      </c>
+      <c r="FS9" s="7"/>
+      <c r="FT9" s="6"/>
+    </row>
+    <row r="10" spans="1:176">
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:176">
+      <c r="O11" s="6"/>
+      <c r="DS11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:176">
+      <c r="O12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+      <c r="BQ12" s="8"/>
+      <c r="BR12" s="8"/>
+      <c r="BS12" s="8"/>
+      <c r="BT12" s="8"/>
+      <c r="BU12" s="8"/>
+      <c r="BV12" s="8"/>
+      <c r="BW12" s="8"/>
+      <c r="BX12" s="8"/>
+      <c r="BY12" s="8"/>
+      <c r="BZ12" s="8"/>
+      <c r="CA12" s="8"/>
+      <c r="CB12" s="8"/>
+      <c r="CC12" s="8"/>
+      <c r="CD12" s="8"/>
+      <c r="CE12" s="8"/>
+      <c r="CF12" s="8"/>
+      <c r="CG12" s="8"/>
+      <c r="CH12" s="8"/>
+      <c r="CI12" s="8"/>
+      <c r="CJ12" s="8"/>
+      <c r="CK12" s="8"/>
+      <c r="CL12" s="8"/>
+      <c r="CM12" s="8"/>
+      <c r="CN12" s="8"/>
+      <c r="CO12" s="8"/>
+      <c r="CP12" s="8"/>
+      <c r="CQ12" s="8"/>
+      <c r="CR12" s="8"/>
+      <c r="CS12" s="8"/>
+      <c r="CT12" s="8"/>
+      <c r="CU12" s="8"/>
+      <c r="CV12" s="8"/>
+      <c r="CW12" s="8"/>
+      <c r="CX12" s="8"/>
+      <c r="CY12" s="8"/>
+      <c r="CZ12" s="8"/>
+      <c r="DA12" s="8"/>
+      <c r="DB12" s="8"/>
+      <c r="DC12" s="8"/>
+      <c r="DD12" s="8"/>
+      <c r="DE12" s="8"/>
+      <c r="DF12" s="8"/>
+      <c r="DG12" s="8"/>
+      <c r="DH12" s="8"/>
+      <c r="DI12" s="8"/>
+      <c r="DJ12" s="8"/>
+      <c r="DK12" s="8"/>
+      <c r="DL12" s="8"/>
+      <c r="DM12" s="8"/>
+      <c r="DN12" s="8"/>
+      <c r="DO12" s="8"/>
+      <c r="DP12" s="8"/>
+      <c r="DQ12" s="8"/>
+      <c r="DR12" s="8"/>
+      <c r="DS12" s="8"/>
+      <c r="DT12" s="8"/>
+      <c r="DU12" s="8"/>
+      <c r="DV12" s="8"/>
+      <c r="DW12" s="8"/>
+      <c r="DX12" s="8"/>
+      <c r="DY12" s="8"/>
+      <c r="DZ12" s="8"/>
+      <c r="EA12" s="8"/>
+      <c r="EB12" s="8"/>
+      <c r="EC12" s="8"/>
+      <c r="ED12" s="8"/>
+      <c r="EE12" s="8"/>
+      <c r="EF12" s="8"/>
+      <c r="EG12" s="8"/>
+      <c r="EH12" s="8"/>
+      <c r="EI12" s="8"/>
+      <c r="EJ12" s="8"/>
+      <c r="EK12" s="8"/>
+      <c r="EL12" s="8"/>
+      <c r="EM12" s="8"/>
+      <c r="EN12" s="8"/>
+      <c r="EO12" s="8"/>
+      <c r="EP12" s="8"/>
+      <c r="EQ12" s="8"/>
+      <c r="ER12" s="8"/>
+      <c r="ES12" s="8"/>
+      <c r="ET12" s="8"/>
+      <c r="EU12" s="8"/>
+      <c r="EV12" s="8"/>
+      <c r="EW12" s="8"/>
+      <c r="EX12" s="8"/>
+      <c r="EY12" s="8"/>
+      <c r="EZ12" s="8"/>
+      <c r="FA12" s="8"/>
+      <c r="FB12" s="8"/>
+      <c r="FC12" s="8"/>
+      <c r="FD12" s="8"/>
+      <c r="FE12" s="8"/>
+      <c r="FF12" s="8"/>
+      <c r="FG12" s="8"/>
+      <c r="FH12" s="8"/>
+      <c r="FI12" s="8"/>
+      <c r="FJ12" s="8"/>
+      <c r="FK12" s="8"/>
+      <c r="FL12" s="8"/>
+      <c r="FM12" s="8"/>
+      <c r="FN12" s="8"/>
+      <c r="FO12" s="8"/>
+      <c r="FP12" s="8"/>
+      <c r="FQ12" s="8"/>
+      <c r="FR12" s="8"/>
+      <c r="FS12" s="8"/>
+    </row>
+    <row r="13" spans="1:176">
+      <c r="A13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" t="s">
+        <v>196</v>
+      </c>
+      <c r="N13" t="s">
         <v>195</v>
       </c>
-      <c r="FL1" t="s">
-        <v>196</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>197</v>
-      </c>
-      <c r="FN1" t="s">
+      <c r="O13" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="FO1" t="s">
-        <v>199</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>200</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:173">
-      <c r="A2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:173">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:173">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:173">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:173">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:173">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
+    </row>
+    <row r="14" spans="1:176">
+      <c r="A14" s="5"/>
+      <c r="I14" t="s">
+        <v>260</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <f>($J14-$O9)/$O8*O2</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>($J14-$O9)/$O8*O3</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>($J14-$O9)/$O8*O4</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>($J14-$O9)/$O8*O5</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>($J14-$O9)/$O8*O6</f>
+        <v>0.6641401484472983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:176">
+      <c r="A15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <f>($J15-$F9)/$F8*F2</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>($J15-$F9)/$F8*F3</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>($J15-$F9)/$F8*F4</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>($J15-$F9)/$F8*F5</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>($J15-$F9)/$F8*F6</f>
+        <v>2.3607951518799758E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:176">
+      <c r="A16" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <f>($J16-$M9)/$M8*M2</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>($J16-$M9)/$M8*M3</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>($J16-$M9)/$M8*M4</f>
+        <v>1.3713898646885501</v>
+      </c>
+      <c r="N16">
+        <f>($J16-$M9)/$M8*M5</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>($J16-$M9)/$M8*M6</f>
+        <v>-1.3713898646885501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <f>($J17-$C9)/$C8*C2</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>($J17-$C9)/$C8*C3</f>
+        <v>0.73706188364707448</v>
+      </c>
+      <c r="M17">
+        <f>($J17-$C9)/$C8*C4</f>
+        <v>-0.73706188364707448</v>
+      </c>
+      <c r="N17">
+        <f>($J17-$C9)/$C8*C5</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>($J17-$C9)/$C8*C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K14:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>SUM(L14:L17)</f>
+        <v>0.73706188364707448</v>
+      </c>
+      <c r="M18">
+        <f>SUM(M14:M17)</f>
+        <v>0.63432798104147559</v>
+      </c>
+      <c r="N18">
+        <f>SUM(N14:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>SUM(O14:O17)</f>
+        <v>-0.70488892108937184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f>K18/1</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>L18/1</f>
+        <v>0.73706188364707448</v>
+      </c>
+      <c r="M19">
+        <f>M18/2</f>
+        <v>0.31716399052073779</v>
+      </c>
+      <c r="N19">
+        <f>N18/1</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <f>O18/3</f>
+        <v>-0.23496297369645727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" s="8"/>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" s="8"/>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" s="8"/>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" s="8"/>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="8"/>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="8"/>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" s="8"/>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" s="8"/>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="8"/>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" s="8"/>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="8"/>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" s="8"/>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" s="8"/>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="8"/>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" s="8"/>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" s="8"/>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" s="8"/>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" s="8"/>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" s="8"/>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" s="8"/>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" s="8"/>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="8"/>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" s="8"/>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" s="8"/>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" s="8"/>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="8"/>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="8"/>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" s="8"/>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" s="8"/>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" s="8"/>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" s="8"/>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" s="8"/>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" s="8"/>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" s="8"/>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" s="8"/>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="8"/>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="8"/>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="8"/>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" s="8"/>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" s="8"/>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" s="8"/>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" s="8"/>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" s="8"/>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" s="8"/>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" s="8"/>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="8"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="8"/>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="8"/>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" s="8"/>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="8"/>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" s="8"/>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" s="8"/>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" s="8"/>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" s="8"/>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" s="8"/>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" s="8"/>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" s="8"/>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="8"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="8"/>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="8"/>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" s="8"/>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" s="8"/>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" s="8"/>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" s="8"/>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" s="8"/>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" s="8"/>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="8"/>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="8"/>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" s="8"/>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" s="8"/>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" s="8"/>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" s="8"/>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="8"/>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="8"/>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="8"/>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="8"/>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="8"/>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" s="8"/>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="8"/>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" s="8"/>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="8"/>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" s="8"/>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" s="8"/>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" s="8"/>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" s="8"/>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" s="8"/>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" s="8"/>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" s="8"/>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="8"/>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="8"/>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" s="8"/>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" s="8"/>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="8"/>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="8"/>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" s="8"/>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" s="8"/>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" s="8"/>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" s="8"/>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" s="8"/>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" s="8"/>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" s="8"/>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" s="8"/>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" s="8"/>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" s="8"/>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" s="8"/>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" s="8"/>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/calculations_data.xlsx
+++ b/db/calculations_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32120" yWindow="-360" windowWidth="32000" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Circles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="263">
   <si>
     <t>Standard Deviation</t>
   </si>
@@ -617,9 +617,6 @@
   </si>
   <si>
     <t>Agreeableness</t>
-  </si>
-  <si>
-    <t>Conscientousness</t>
   </si>
   <si>
     <t>Mean</t>
@@ -1388,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1414,28 +1411,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -1481,7 +1478,7 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="2">
         <v>0.8</v>
@@ -1701,7 +1698,7 @@
         <v>29.2</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>193</v>
@@ -1853,7 +1850,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>194</v>
@@ -1891,7 +1888,7 @@
         <v>20.3</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>194</v>
@@ -1929,7 +1926,7 @@
         <v>24.1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>194</v>
@@ -1967,7 +1964,7 @@
         <v>27.5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>194</v>
@@ -2005,7 +2002,7 @@
         <v>31.5</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>194</v>
@@ -2043,7 +2040,7 @@
         <v>34.1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>194</v>
@@ -2051,66 +2048,66 @@
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2135,15 +2132,15 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2159,7 +2156,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36">
         <v>0.53</v>
@@ -2195,12 +2192,12 @@
     </row>
     <row r="37" spans="1:7">
       <c r="C37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2273,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="2" spans="1:176">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3328,7 +3325,7 @@
     </row>
     <row r="3" spans="1:176">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="4" spans="1:176">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4370,7 +4367,7 @@
     </row>
     <row r="5" spans="1:176" ht="17.25" customHeight="1">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4891,7 +4888,7 @@
     </row>
     <row r="6" spans="1:176">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5933,7 +5930,7 @@
     </row>
     <row r="9" spans="1:176">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="6">
         <v>12.053941908713693</v>
@@ -6460,7 +6457,7 @@
     <row r="11" spans="1:176">
       <c r="O11" s="6"/>
       <c r="DS11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:176">
@@ -6627,13 +6624,13 @@
     </row>
     <row r="13" spans="1:176">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K13" t="s">
         <v>4</v>
@@ -6654,7 +6651,7 @@
     <row r="14" spans="1:176">
       <c r="A14" s="5"/>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -6682,13 +6679,13 @@
     </row>
     <row r="15" spans="1:176">
       <c r="A15" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -6716,13 +6713,13 @@
     </row>
     <row r="16" spans="1:176">
       <c r="A16" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J16">
         <v>7</v>
@@ -6750,13 +6747,13 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J17">
         <v>15</v>
@@ -6784,13 +6781,13 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K18">
         <f>SUM(K14:K17)</f>
@@ -6815,7 +6812,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6843,7 +6840,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6852,7 +6849,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6861,7 +6858,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -6870,7 +6867,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -6879,7 +6876,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -6888,52 +6885,52 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -6942,7 +6939,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -6951,7 +6948,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -6960,7 +6957,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -6969,7 +6966,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34">
         <v>7</v>
